--- a/数据整理/stocks/A股/深证主板/000959-首钢股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000959-首钢股份.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,73 +22,109 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
+    <t>512780</t>
+  </si>
+  <si>
+    <t>001351</t>
+  </si>
+  <si>
     <t>164811</t>
   </si>
   <si>
+    <t>515510</t>
+  </si>
+  <si>
     <t>164825</t>
   </si>
   <si>
-    <t>512780</t>
-  </si>
-  <si>
-    <t>001351</t>
-  </si>
-  <si>
     <t>010355</t>
   </si>
   <si>
-    <t>515510</t>
+    <t>广发中证京津冀协同发展主题ETF</t>
+  </si>
+  <si>
+    <t>诺安中证500指数增强A</t>
   </si>
   <si>
     <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
   </si>
   <si>
+    <t>嘉实中证500成长估值ETF</t>
+  </si>
+  <si>
     <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
   </si>
   <si>
-    <t>广发中证京津冀协同发展主题ETF</t>
-  </si>
-  <si>
-    <t>诺安中证500指数增强A</t>
-  </si>
-  <si>
     <t>诺安中证500指数增强C</t>
   </si>
   <si>
-    <t>嘉实中证500成长估值ETF</t>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>99.46</t>
+  </si>
+  <si>
+    <t>92.82</t>
   </si>
   <si>
     <t>94.67</t>
   </si>
   <si>
-    <t>99.46</t>
-  </si>
-  <si>
-    <t>92.82</t>
-  </si>
-  <si>
     <t>98.96</t>
   </si>
   <si>
+    <t>3.26</t>
+  </si>
+  <si>
+    <t>2.09</t>
+  </si>
+  <si>
     <t>3.01</t>
   </si>
   <si>
-    <t>3.26</t>
-  </si>
-  <si>
-    <t>2.09</t>
-  </si>
-  <si>
     <t>1.39</t>
+  </si>
+  <si>
+    <t>0.0137</t>
+  </si>
+  <si>
+    <t>0.0134</t>
+  </si>
+  <si>
+    <t>0.0039</t>
+  </si>
+  <si>
+    <t>0.0022</t>
+  </si>
+  <si>
+    <t>0.0003</t>
   </si>
 </sst>
 </file>
@@ -446,13 +482,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,125 +504,164 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2">
-        <v>9</v>
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3">
-        <v>9</v>
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4">
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000959-首钢股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000959-首钢股份.xlsx
@@ -1,162 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>512780</t>
-  </si>
-  <si>
-    <t>001351</t>
-  </si>
-  <si>
-    <t>164811</t>
-  </si>
-  <si>
-    <t>515510</t>
-  </si>
-  <si>
-    <t>164825</t>
-  </si>
-  <si>
-    <t>010355</t>
-  </si>
-  <si>
-    <t>广发中证京津冀协同发展主题ETF</t>
-  </si>
-  <si>
-    <t>诺安中证500指数增强A</t>
-  </si>
-  <si>
-    <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
-  </si>
-  <si>
-    <t>嘉实中证500成长估值ETF</t>
-  </si>
-  <si>
-    <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
-  </si>
-  <si>
-    <t>诺安中证500指数增强C</t>
-  </si>
-  <si>
-    <t>0.42</t>
-  </si>
-  <si>
-    <t>0.64</t>
-  </si>
-  <si>
-    <t>0.13</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>99.46</t>
-  </si>
-  <si>
-    <t>92.82</t>
-  </si>
-  <si>
-    <t>94.67</t>
-  </si>
-  <si>
-    <t>98.96</t>
-  </si>
-  <si>
-    <t>3.26</t>
-  </si>
-  <si>
-    <t>2.09</t>
-  </si>
-  <si>
-    <t>3.01</t>
-  </si>
-  <si>
-    <t>1.39</t>
-  </si>
-  <si>
-    <t>0.0137</t>
-  </si>
-  <si>
-    <t>0.0134</t>
-  </si>
-  <si>
-    <t>0.0039</t>
-  </si>
-  <si>
-    <t>0.0022</t>
-  </si>
-  <si>
-    <t>0.0003</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -179,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -481,190 +446,372 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512780</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证京津冀协同发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000959-首钢股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000959-首钢股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -814,4 +815,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001751</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商信用增强债券A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4618</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001752</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商信用增强债券C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7243</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>37.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4108</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000654</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商新锐产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3600</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012491</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3285</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>37.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1646</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004423</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>630011</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商主题精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012492</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商核心引力混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000959-首钢股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000959-首钢股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1327,4 +1328,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000959-首钢股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000959-首钢股份.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1336,7 +1337,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1347,17 +1348,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1367,14 +1388,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.94</v>
+          <t>519183</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家双引擎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1383,14 +1426,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.04</v>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1399,13 +1464,135 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000959-首钢股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000959-首钢股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1507,7 +1508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1518,17 +1519,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1538,14 +1559,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.13</v>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3043</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1554,14 +1597,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.94</v>
+          <t>011997</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1062</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1570,14 +1635,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.04</v>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0813</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1586,13 +1673,455 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011731</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>43.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>260117</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城支柱产业混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011732</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银安睿混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>43.48</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011998</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>29.73</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005260</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006195</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国金量化多因子股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005261</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华稳健增利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000959-首钢股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000959-首钢股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2020,7 +2021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2031,17 +2032,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2051,14 +2072,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.58</v>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2067,14 +2110,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.13</v>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2083,14 +2148,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>3.94</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="5">
@@ -2099,14 +2270,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="6">
@@ -2115,13 +2286,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000959-首钢股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000959-首钢股份.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,274 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>512780</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发中证京津冀协同发展主题ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.46</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0137</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>3</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001351</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>诺安中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0134</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>164811</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>515510</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实中证500成长估值ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>98.96</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>164825</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010355</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>诺安中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.82</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -733,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -754,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -784,36 +639,112 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519198</t>
+          <t>001244</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家颐和灵活配置混合</t>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.66</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0383</t>
+          <t>0.0293</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008116</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华沪深股通精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -848,7 +779,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -878,36 +809,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001751</t>
+          <t>006682</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商信用增强债券A</t>
+          <t>景顺长城中证500指数增强</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>46.26</t>
+          <t>16.63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20.85</t>
+          <t>87.75</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4618</t>
+          <t>0.3043</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -916,36 +847,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001752</t>
+          <t>011997</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华商信用增强债券C</t>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>22.92</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.85</t>
+          <t>29.73</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7243</t>
+          <t>0.1062</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -954,36 +885,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005273</t>
+          <t>460009</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华商可转债债券A</t>
+          <t>华泰柏瑞量化先行混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>19.56</t>
+          <t>9.13</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>37.55</t>
+          <t>90.47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.4108</t>
+          <t>0.0813</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -992,36 +923,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000654</t>
+          <t>005632</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华商新锐产业灵活配置混合</t>
+          <t>鹏华量化先锋混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.12</t>
+          <t>3.10</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.80</t>
+          <t>92.91</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.3600</t>
+          <t>0.0422</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1030,36 +961,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>012491</t>
+          <t>011731</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华商核心引力混合型证券投资基金A</t>
+          <t>国投瑞银安睿混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.06</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.16</t>
+          <t>43.48</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3285</t>
+          <t>0.0186</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1068,36 +999,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005284</t>
+          <t>260117</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华商可转债债券C</t>
+          <t>景顺长城支柱产业混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.84</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>37.55</t>
+          <t>76.78</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>2.98</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1646</t>
+          <t>0.0072</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1106,36 +1037,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519183</t>
+          <t>011732</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>万家双引擎灵活配置混合</t>
+          <t>国投瑞银安睿混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>93.18</t>
+          <t>43.48</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1624</t>
+          <t>0.0068</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1144,36 +1075,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004423</t>
+          <t>011998</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华商研究精选灵活配置混合</t>
+          <t>景顺长城安盈回报一年持有期混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>90.64</t>
+          <t>29.73</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1336</t>
+          <t>0.0043</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1182,36 +1113,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>630011</t>
+          <t>005260</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华商主题精选混合</t>
+          <t>银华稳健增利灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>88.47</t>
+          <t>91.49</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1188</t>
+          <t>0.0024</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1220,36 +1151,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009658</t>
+          <t>010246</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘低波动策略股票A</t>
+          <t>华泰柏瑞量化先行混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>92.15</t>
+          <t>90.47</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0495</t>
+          <t>0.0011</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1258,36 +1189,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>012492</t>
+          <t>006195</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华商核心引力混合型证券投资基金C</t>
+          <t>国金量化多因子股票</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>88.16</t>
+          <t>80.71</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0264</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1296,36 +1227,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009775</t>
+          <t>005261</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>汇丰晋信中小盘低波动策略股票C</t>
+          <t>银华稳健增利灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>92.15</t>
+          <t>91.49</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0027</t>
+          <t>0.0002</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1530,7 +1461,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1560,36 +1491,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006682</t>
+          <t>001751</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城中证500指数增强</t>
+          <t>华商信用增强债券A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>16.63</t>
+          <t>46.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.75</t>
+          <t>20.85</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3043</t>
+          <t>1.4618</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1598,36 +1529,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011997</t>
+          <t>001752</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城安盈回报一年持有期混合型证券投资基金A</t>
+          <t>华商信用增强债券C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.74</t>
+          <t>22.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>29.73</t>
+          <t>20.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1062</t>
+          <t>0.7243</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1636,36 +1567,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>460009</t>
+          <t>005273</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化先行混合A</t>
+          <t>华商可转债债券A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9.13</t>
+          <t>19.56</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.47</t>
+          <t>37.55</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0813</t>
+          <t>0.4108</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1674,36 +1605,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005632</t>
+          <t>000654</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华量化先锋混合</t>
+          <t>华商新锐产业灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.10</t>
+          <t>12.12</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.91</t>
+          <t>89.80</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0422</t>
+          <t>0.3600</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1712,36 +1643,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011731</t>
+          <t>012491</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国投瑞银安睿混合A</t>
+          <t>华商核心引力混合型证券投资基金A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>11.06</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>43.48</t>
+          <t>88.16</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0186</t>
+          <t>0.3285</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1750,36 +1681,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>260117</t>
+          <t>005284</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>景顺长城支柱产业混合</t>
+          <t>华商可转债债券C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>7.84</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>76.78</t>
+          <t>37.55</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.98</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0072</t>
+          <t>0.1646</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1788,36 +1719,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>011732</t>
+          <t>519183</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国投瑞银安睿混合C</t>
+          <t>万家双引擎灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>43.48</t>
+          <t>93.18</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0068</t>
+          <t>0.1624</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1826,36 +1757,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>011998</t>
+          <t>004423</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>景顺长城安盈回报一年持有期混合型证券投资基金C</t>
+          <t>华商研究精选灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>29.73</t>
+          <t>90.64</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0043</t>
+          <t>0.1336</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1864,36 +1795,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005260</t>
+          <t>630011</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>银华稳健增利灵活配置混合A</t>
+          <t>华商主题精选混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>91.49</t>
+          <t>88.47</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0024</t>
+          <t>0.1188</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1902,36 +1833,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010246</t>
+          <t>009658</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化先行混合C</t>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>90.47</t>
+          <t>92.15</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.0495</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1940,36 +1871,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>006195</t>
+          <t>012492</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国金量化多因子股票</t>
+          <t>华商核心引力混合型证券投资基金C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>80.71</t>
+          <t>88.16</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0008</t>
+          <t>0.0264</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1978,36 +1909,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005261</t>
+          <t>009775</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>银华稳健增利灵活配置混合C</t>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>91.49</t>
+          <t>92.15</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>3.87</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0027</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2021,7 +1952,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2042,7 +1973,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2072,112 +2003,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001244</t>
+          <t>519198</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+          <t>万家颐和灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.80</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>89.66</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>6.38</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0293</t>
+          <t>0.0383</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008116</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银华沪深股通精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>73.63</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0140</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>006104</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化智慧灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.62</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0057</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2191,128 +2046,273 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>512780</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中证京津冀协同发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.05</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.58</v>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+          <t>164811</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.94</v>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.04</v>
+          <t>164825</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中证京津冀协同发展主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>6</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.03</v>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000959-首钢股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/000959-首钢股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.58</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>0.13</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>3.94</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>6</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -583,6 +600,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -752,7 +863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1264,7 +1375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1434,7 +1545,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1946,7 +2057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2040,7 +2151,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
